--- a/biology/Botanique/Allium_hookeri/Allium_hookeri.xlsx
+++ b/biology/Botanique/Allium_hookeri/Allium_hookeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium hookeri est une espèce végétale géophyte de la famille des Amaryllidécées originaire de l'Inde, de Myanmar du Sri Lanka, de Birmanie, du Bhoutan, du sud-ouest de la Chine, Sichuan, Yunnan, et Tibet.
 Ses noms communs sont : « ciboulette Hooker », « ail ciboulette » et « 宽叶韭 (kuan ye jiu) ». Et elle a pour synonyme :Allium tsoongii F.T. Wang &amp; Tang et pour sous-espèce : Allium hookeri var. muliense Airy Shaw	
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium hookeri a des racines allongées, épaisses et charnues et forme un amas de bulbes fins. Les hampes florales font 60 cm de haut. Les feuilles sont plates et étroites, à peu près de la même longueur que les hampes, mais de seulement 1 cm de largeur. Les ombelles hémisphériques à globuleuses sont constituées de nombreuses fleurs blanches ou jaune verdâtre[1],[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium hookeri a des racines allongées, épaisses et charnues et forme un amas de bulbes fins. Les hampes florales font 60 cm de haut. Les feuilles sont plates et étroites, à peu près de la même longueur que les hampes, mais de seulement 1 cm de largeur. Les ombelles hémisphériques à globuleuses sont constituées de nombreuses fleurs blanches ou jaune verdâtre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve à la lisières des forêts et en forêts, dans les endroits humides, les prairies; à une altitude de 1400-4200 m.
 </t>
@@ -574,9 +590,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est largement cultivée en dehors de son aire de répartition indigène et appréciée comme aliment dans une grande partie de l’Asie du Sud et du Sud-Est[1],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est largement cultivée en dehors de son aire de répartition indigène et appréciée comme aliment dans une grande partie de l’Asie du Sud et du Sud-Est,.
 </t>
         </is>
       </c>
